--- a/A.xlsx
+++ b/A.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIM-SYSTEM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIM-SYSTEM\Desktop\GitFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E01CA-3930-48E0-AFF6-9E0B8DB60971}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE897C4-0763-4D28-9126-C1CC0D8AEB59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.25" sheetId="9" r:id="rId1"/>
+    <sheet name="5.26" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +509,210 @@
   </si>
   <si>
     <t>8连板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N海程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞丰高材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银禧科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创新源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云涌科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美瑞新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上线下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正源股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹化科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江新能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏润建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰达股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫高股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金一文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南极电商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝光股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国新文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大湖股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑桥科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长鸿高科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛海控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云天化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长源电力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德露露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蟠科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养元饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺控发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶花股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚记科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华通线缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚星客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道恩股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传智教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双星新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特一药业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天元股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德美化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东墨龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝带科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浔兴股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力索具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久其软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山纸业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天3板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12天10板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -593,15 +798,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -619,6 +815,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32205F25-45F6-4668-8C90-2B454CFA8753}">
   <dimension ref="B2:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -919,48 +1140,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1104,49 +1325,49 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+    <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>2717</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>3.7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+    <row r="11" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>2316</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>5.89</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1426,26 +1647,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+    <row r="24" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>2679</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>17.03</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1773,26 +1994,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+    <row r="39" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
         <v>36</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>605339</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="7">
         <v>39.39</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2003,26 +2224,26 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
+    <row r="49" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
         <v>46</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="11">
         <v>2386</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>8.5</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="16" t="s">
+      <c r="G49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2262,4 +2483,1208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEDF6B-54E2-47F6-91F9-FBF7145BB559}">
+  <dimension ref="B2:K80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="22.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>